--- a/web-app/docs/sprint_backlogs/sprint_1_backlog.xlsx
+++ b/web-app/docs/sprint_backlogs/sprint_1_backlog.xlsx
@@ -2,21 +2,21 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andreasnergard/programmering/inf-2900/INF-2900/web-app/docs/sprint_backlogs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{66204F15-5440-2746-A395-DA78EB576BF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5E19C17B-2F68-774F-BC3F-A2A260BEE69D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="820" yWindow="500" windowWidth="32780" windowHeight="20500" xr2:uid="{D95EA6AB-1B81-C949-A6EF-6DC1CA99DBD3}"/>
+    <workbookView xWindow="840" yWindow="500" windowWidth="32760" windowHeight="20500" xr2:uid="{D95EA6AB-1B81-C949-A6EF-6DC1CA99DBD3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -54,15 +54,15 @@
     <t>Owner</t>
   </si>
   <si>
+    <t>Estimated effort</t>
+  </si>
+  <si>
+    <t>Total effort</t>
+  </si>
+  <si>
     <t>Status</t>
   </si>
   <si>
-    <t>Estimated effort</t>
-  </si>
-  <si>
-    <t>Total effort</t>
-  </si>
-  <si>
     <t>User story</t>
   </si>
   <si>
@@ -72,49 +72,49 @@
     <t xml:space="preserve"> Frontend - Create a registration form with required fields: username, passwords, etc. </t>
   </si>
   <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
     <t>Backend: Design and create the necessary models and set up API endpoint to support user registration</t>
   </si>
   <si>
+    <t>Andreas</t>
+  </si>
+  <si>
     <t>Write tests to verify URL routing, model behavior, and view logic for the registration process</t>
   </si>
   <si>
+    <t>Karoline</t>
+  </si>
+  <si>
     <t>Create an acceptance test that simulates the full registration and login process</t>
   </si>
   <si>
     <t xml:space="preserve">Write corresponding user story </t>
   </si>
   <si>
-    <t>Completed</t>
-  </si>
-  <si>
     <t>As a registered user, I want to use my login credentials created under registration to log into the iGym system</t>
   </si>
   <si>
     <t>Set up backend logic for login using Django REST Framework JWT</t>
   </si>
   <si>
+    <t>August</t>
+  </si>
+  <si>
     <t>Frontend: Create a login form and handle authentication requests to the backend</t>
   </si>
   <si>
+    <t>Daniel</t>
+  </si>
+  <si>
     <t>Write tests to verify URL routing for the login process</t>
   </si>
   <si>
     <t>Write corresponding user story</t>
-  </si>
-  <si>
-    <t>Max</t>
-  </si>
-  <si>
-    <t>Daniel</t>
-  </si>
-  <si>
-    <t>Andreas</t>
-  </si>
-  <si>
-    <t>August</t>
-  </si>
-  <si>
-    <t>Karoline</t>
   </si>
 </sst>
 </file>
@@ -337,80 +337,107 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -423,33 +450,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -791,475 +791,510 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65BF5523-E182-3C4C-BFDC-80C36AF752B4}">
   <dimension ref="H8:W28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="75" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Z30" sqref="Z30"/>
+    <sheetView tabSelected="1" topLeftCell="E6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L36" sqref="L36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="8" spans="8:23" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="8:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H9" s="32" t="s">
+      <c r="H9" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="I9" s="33"/>
-      <c r="J9" s="33"/>
-      <c r="K9" s="33"/>
-      <c r="L9" s="33"/>
-      <c r="M9" s="33"/>
-      <c r="N9" s="33"/>
-      <c r="O9" s="33"/>
-      <c r="P9" s="33"/>
-      <c r="Q9" s="33"/>
-      <c r="R9" s="33"/>
-      <c r="S9" s="33"/>
-      <c r="T9" s="33"/>
-      <c r="U9" s="33"/>
-      <c r="V9" s="33"/>
-      <c r="W9" s="34"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="29"/>
+      <c r="M9" s="29"/>
+      <c r="N9" s="29"/>
+      <c r="O9" s="29"/>
+      <c r="P9" s="29"/>
+      <c r="Q9" s="29"/>
+      <c r="R9" s="29"/>
+      <c r="S9" s="29"/>
+      <c r="T9" s="29"/>
+      <c r="U9" s="29"/>
+      <c r="V9" s="29"/>
+      <c r="W9" s="30"/>
     </row>
     <row r="10" spans="8:23" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H10" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I10" s="35" t="s">
+      <c r="I10" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="J10" s="36"/>
-      <c r="K10" s="37"/>
-      <c r="L10" s="38" t="s">
+      <c r="J10" s="32"/>
+      <c r="K10" s="33"/>
+      <c r="L10" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="M10" s="39"/>
-      <c r="N10" s="39"/>
-      <c r="O10" s="40"/>
-      <c r="P10" s="35" t="s">
+      <c r="M10" s="35"/>
+      <c r="N10" s="35"/>
+      <c r="O10" s="36"/>
+      <c r="P10" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="Q10" s="37"/>
-      <c r="R10" s="38" t="s">
+      <c r="Q10" s="33"/>
+      <c r="R10" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="S10" s="36"/>
+      <c r="T10" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="S10" s="40"/>
-      <c r="T10" s="38" t="s">
+      <c r="U10" s="36"/>
+      <c r="V10" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="U10" s="40"/>
-      <c r="V10" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="W10" s="40"/>
+      <c r="W10" s="36"/>
     </row>
     <row r="11" spans="8:23" x14ac:dyDescent="0.2">
-      <c r="H11" s="8" t="s">
+      <c r="H11" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I11" s="11" t="s">
+      <c r="I11" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="J11" s="12"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="28" t="s">
+      <c r="J11" s="10"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="M11" s="28"/>
-      <c r="N11" s="28"/>
-      <c r="O11" s="29"/>
+      <c r="M11" s="37"/>
+      <c r="N11" s="37"/>
+      <c r="O11" s="38"/>
       <c r="P11" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q11" s="4"/>
+        <v>11</v>
+      </c>
+      <c r="Q11" s="3"/>
       <c r="R11" s="2">
         <v>2</v>
       </c>
-      <c r="S11" s="4"/>
+      <c r="S11" s="3"/>
       <c r="T11" s="2">
         <v>10</v>
       </c>
-      <c r="U11" s="4"/>
+      <c r="U11" s="3"/>
       <c r="V11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="W11" s="4"/>
+        <v>12</v>
+      </c>
+      <c r="W11" s="3"/>
     </row>
     <row r="12" spans="8:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H12" s="9"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="30"/>
-      <c r="M12" s="30"/>
-      <c r="N12" s="30"/>
-      <c r="O12" s="31"/>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="7"/>
-      <c r="R12" s="5"/>
-      <c r="S12" s="7"/>
-      <c r="T12" s="20"/>
-      <c r="U12" s="21"/>
-      <c r="V12" s="5"/>
-      <c r="W12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="39"/>
+      <c r="M12" s="39"/>
+      <c r="N12" s="39"/>
+      <c r="O12" s="40"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="18"/>
+      <c r="U12" s="19"/>
+      <c r="V12" s="4"/>
+      <c r="W12" s="5"/>
     </row>
     <row r="13" spans="8:23" x14ac:dyDescent="0.2">
-      <c r="H13" s="9"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="16"/>
-      <c r="L13" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="M13" s="23"/>
-      <c r="N13" s="23"/>
-      <c r="O13" s="24"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="M13" s="21"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="22"/>
       <c r="P13" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q13" s="4"/>
+        <v>14</v>
+      </c>
+      <c r="Q13" s="3"/>
       <c r="R13" s="2">
         <v>2</v>
       </c>
-      <c r="S13" s="4"/>
-      <c r="T13" s="20"/>
-      <c r="U13" s="21"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="18"/>
+      <c r="U13" s="19"/>
       <c r="V13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="W13" s="3"/>
+    </row>
+    <row r="14" spans="8:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H14" s="7"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="24"/>
+      <c r="M14" s="24"/>
+      <c r="N14" s="24"/>
+      <c r="O14" s="25"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="18"/>
+      <c r="U14" s="19"/>
+      <c r="V14" s="4"/>
+      <c r="W14" s="5"/>
+    </row>
+    <row r="15" spans="8:23" x14ac:dyDescent="0.2">
+      <c r="H15" s="7"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="W13" s="4"/>
-    </row>
-    <row r="14" spans="8:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H14" s="9"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="26"/>
-      <c r="M14" s="26"/>
-      <c r="N14" s="26"/>
-      <c r="O14" s="27"/>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="7"/>
-      <c r="R14" s="5"/>
-      <c r="S14" s="7"/>
-      <c r="T14" s="20"/>
-      <c r="U14" s="21"/>
-      <c r="V14" s="5"/>
-      <c r="W14" s="7"/>
-    </row>
-    <row r="15" spans="8:23" x14ac:dyDescent="0.2">
-      <c r="H15" s="9"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="16"/>
-      <c r="L15" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="M15" s="23"/>
-      <c r="N15" s="23"/>
-      <c r="O15" s="24"/>
+      <c r="M15" s="21"/>
+      <c r="N15" s="21"/>
+      <c r="O15" s="22"/>
       <c r="P15" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q15" s="4"/>
+        <v>16</v>
+      </c>
+      <c r="Q15" s="3"/>
       <c r="R15" s="2">
         <v>3</v>
       </c>
-      <c r="S15" s="4"/>
-      <c r="T15" s="20"/>
-      <c r="U15" s="21"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="18"/>
+      <c r="U15" s="19"/>
       <c r="V15" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="W15" s="4"/>
+        <v>12</v>
+      </c>
+      <c r="W15" s="3"/>
     </row>
     <row r="16" spans="8:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H16" s="9"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="16"/>
-      <c r="L16" s="26"/>
-      <c r="M16" s="26"/>
-      <c r="N16" s="26"/>
-      <c r="O16" s="27"/>
-      <c r="P16" s="5"/>
-      <c r="Q16" s="7"/>
-      <c r="R16" s="5"/>
-      <c r="S16" s="7"/>
-      <c r="T16" s="20"/>
-      <c r="U16" s="21"/>
-      <c r="V16" s="5"/>
-      <c r="W16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="24"/>
+      <c r="N16" s="24"/>
+      <c r="O16" s="25"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="4"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="18"/>
+      <c r="U16" s="19"/>
+      <c r="V16" s="4"/>
+      <c r="W16" s="5"/>
     </row>
     <row r="17" spans="8:23" x14ac:dyDescent="0.2">
-      <c r="H17" s="9"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="16"/>
-      <c r="L17" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="M17" s="23"/>
-      <c r="N17" s="23"/>
-      <c r="O17" s="24"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="M17" s="21"/>
+      <c r="N17" s="21"/>
+      <c r="O17" s="22"/>
       <c r="P17" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q17" s="4"/>
+        <v>14</v>
+      </c>
+      <c r="Q17" s="3"/>
       <c r="R17" s="2">
         <v>2</v>
       </c>
-      <c r="S17" s="4"/>
-      <c r="T17" s="20"/>
-      <c r="U17" s="21"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="18"/>
+      <c r="U17" s="19"/>
       <c r="V17" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="W17" s="4"/>
+        <v>12</v>
+      </c>
+      <c r="W17" s="3"/>
     </row>
     <row r="18" spans="8:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H18" s="9"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="16"/>
-      <c r="L18" s="26"/>
-      <c r="M18" s="26"/>
-      <c r="N18" s="26"/>
-      <c r="O18" s="27"/>
-      <c r="P18" s="5"/>
-      <c r="Q18" s="7"/>
-      <c r="R18" s="5"/>
-      <c r="S18" s="7"/>
-      <c r="T18" s="20"/>
-      <c r="U18" s="21"/>
-      <c r="V18" s="5"/>
-      <c r="W18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="24"/>
+      <c r="M18" s="24"/>
+      <c r="N18" s="24"/>
+      <c r="O18" s="25"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="4"/>
+      <c r="S18" s="5"/>
+      <c r="T18" s="18"/>
+      <c r="U18" s="19"/>
+      <c r="V18" s="4"/>
+      <c r="W18" s="5"/>
     </row>
     <row r="19" spans="8:23" x14ac:dyDescent="0.2">
-      <c r="H19" s="9"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="16"/>
-      <c r="L19" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="M19" s="12"/>
-      <c r="N19" s="12"/>
-      <c r="O19" s="13"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="M19" s="10"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="11"/>
       <c r="P19" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q19" s="4"/>
+        <v>11</v>
+      </c>
+      <c r="Q19" s="3"/>
       <c r="R19" s="2">
         <v>1</v>
       </c>
-      <c r="S19" s="4"/>
-      <c r="T19" s="20"/>
-      <c r="U19" s="21"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="18"/>
+      <c r="U19" s="19"/>
       <c r="V19" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="W19" s="4"/>
+        <v>12</v>
+      </c>
+      <c r="W19" s="3"/>
     </row>
     <row r="20" spans="8:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H20" s="10"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="18"/>
-      <c r="K20" s="19"/>
-      <c r="L20" s="17"/>
-      <c r="M20" s="18"/>
-      <c r="N20" s="18"/>
-      <c r="O20" s="19"/>
-      <c r="P20" s="5"/>
-      <c r="Q20" s="7"/>
-      <c r="R20" s="5"/>
-      <c r="S20" s="7"/>
-      <c r="T20" s="5"/>
-      <c r="U20" s="7"/>
-      <c r="V20" s="5"/>
-      <c r="W20" s="7"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="16"/>
+      <c r="N20" s="16"/>
+      <c r="O20" s="17"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="4"/>
+      <c r="S20" s="5"/>
+      <c r="T20" s="4"/>
+      <c r="U20" s="5"/>
+      <c r="V20" s="4"/>
+      <c r="W20" s="5"/>
     </row>
     <row r="21" spans="8:23" x14ac:dyDescent="0.2">
-      <c r="H21" s="8" t="s">
+      <c r="H21" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I21" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="J21" s="12"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="M21" s="12"/>
-      <c r="N21" s="12"/>
-      <c r="O21" s="13"/>
+      <c r="I21" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J21" s="10"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="M21" s="10"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="11"/>
       <c r="P21" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q21" s="4"/>
+        <v>21</v>
+      </c>
+      <c r="Q21" s="3"/>
       <c r="R21" s="2">
         <v>3</v>
       </c>
-      <c r="S21" s="4"/>
+      <c r="S21" s="3"/>
       <c r="T21" s="2">
         <v>7</v>
       </c>
-      <c r="U21" s="4"/>
+      <c r="U21" s="3"/>
       <c r="V21" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="W21" s="4"/>
+        <v>12</v>
+      </c>
+      <c r="W21" s="3"/>
     </row>
     <row r="22" spans="8:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H22" s="9"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="15"/>
-      <c r="K22" s="16"/>
-      <c r="L22" s="17"/>
-      <c r="M22" s="18"/>
-      <c r="N22" s="18"/>
-      <c r="O22" s="19"/>
-      <c r="P22" s="5"/>
-      <c r="Q22" s="7"/>
-      <c r="R22" s="5"/>
-      <c r="S22" s="7"/>
-      <c r="T22" s="20"/>
-      <c r="U22" s="21"/>
-      <c r="V22" s="5"/>
-      <c r="W22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="16"/>
+      <c r="N22" s="16"/>
+      <c r="O22" s="17"/>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="4"/>
+      <c r="S22" s="5"/>
+      <c r="T22" s="18"/>
+      <c r="U22" s="19"/>
+      <c r="V22" s="4"/>
+      <c r="W22" s="5"/>
     </row>
     <row r="23" spans="8:23" x14ac:dyDescent="0.2">
-      <c r="H23" s="9"/>
-      <c r="I23" s="14"/>
-      <c r="J23" s="15"/>
-      <c r="K23" s="16"/>
-      <c r="L23" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="M23" s="23"/>
-      <c r="N23" s="23"/>
-      <c r="O23" s="24"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="M23" s="21"/>
+      <c r="N23" s="21"/>
+      <c r="O23" s="22"/>
       <c r="P23" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q23" s="4"/>
+        <v>23</v>
+      </c>
+      <c r="Q23" s="3"/>
       <c r="R23" s="2">
         <v>2</v>
       </c>
-      <c r="S23" s="4"/>
-      <c r="T23" s="20"/>
-      <c r="U23" s="21"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="18"/>
+      <c r="U23" s="19"/>
       <c r="V23" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="W23" s="4"/>
+        <v>12</v>
+      </c>
+      <c r="W23" s="3"/>
     </row>
     <row r="24" spans="8:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H24" s="9"/>
-      <c r="I24" s="14"/>
-      <c r="J24" s="15"/>
-      <c r="K24" s="16"/>
-      <c r="L24" s="25"/>
-      <c r="M24" s="26"/>
-      <c r="N24" s="26"/>
-      <c r="O24" s="27"/>
-      <c r="P24" s="5"/>
-      <c r="Q24" s="7"/>
-      <c r="R24" s="5"/>
-      <c r="S24" s="7"/>
-      <c r="T24" s="20"/>
-      <c r="U24" s="21"/>
-      <c r="V24" s="5"/>
-      <c r="W24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="23"/>
+      <c r="M24" s="24"/>
+      <c r="N24" s="24"/>
+      <c r="O24" s="25"/>
+      <c r="P24" s="4"/>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="4"/>
+      <c r="S24" s="5"/>
+      <c r="T24" s="18"/>
+      <c r="U24" s="19"/>
+      <c r="V24" s="4"/>
+      <c r="W24" s="5"/>
     </row>
     <row r="25" spans="8:23" x14ac:dyDescent="0.2">
-      <c r="H25" s="9"/>
-      <c r="I25" s="14"/>
-      <c r="J25" s="15"/>
-      <c r="K25" s="16"/>
-      <c r="L25" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="M25" s="12"/>
-      <c r="N25" s="12"/>
-      <c r="O25" s="13"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="11"/>
       <c r="P25" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q25" s="4"/>
+        <v>11</v>
+      </c>
+      <c r="Q25" s="3"/>
       <c r="R25" s="2">
         <v>1</v>
       </c>
-      <c r="S25" s="4"/>
-      <c r="T25" s="20"/>
-      <c r="U25" s="21"/>
+      <c r="S25" s="3"/>
+      <c r="T25" s="18"/>
+      <c r="U25" s="19"/>
       <c r="V25" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="W25" s="4"/>
+        <v>12</v>
+      </c>
+      <c r="W25" s="3"/>
     </row>
     <row r="26" spans="8:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H26" s="9"/>
-      <c r="I26" s="14"/>
-      <c r="J26" s="15"/>
-      <c r="K26" s="16"/>
-      <c r="L26" s="17"/>
-      <c r="M26" s="18"/>
-      <c r="N26" s="18"/>
-      <c r="O26" s="19"/>
-      <c r="P26" s="5"/>
-      <c r="Q26" s="7"/>
-      <c r="R26" s="5"/>
-      <c r="S26" s="7"/>
-      <c r="T26" s="20"/>
-      <c r="U26" s="21"/>
-      <c r="V26" s="5"/>
-      <c r="W26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="15"/>
+      <c r="M26" s="16"/>
+      <c r="N26" s="16"/>
+      <c r="O26" s="17"/>
+      <c r="P26" s="4"/>
+      <c r="Q26" s="5"/>
+      <c r="R26" s="4"/>
+      <c r="S26" s="5"/>
+      <c r="T26" s="18"/>
+      <c r="U26" s="19"/>
+      <c r="V26" s="4"/>
+      <c r="W26" s="5"/>
     </row>
     <row r="27" spans="8:23" x14ac:dyDescent="0.2">
-      <c r="H27" s="9"/>
-      <c r="I27" s="14"/>
-      <c r="J27" s="15"/>
-      <c r="K27" s="16"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="13"/>
+      <c r="K27" s="14"/>
       <c r="L27" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M27" s="3"/>
-      <c r="N27" s="3"/>
-      <c r="O27" s="4"/>
+        <v>25</v>
+      </c>
+      <c r="M27" s="26"/>
+      <c r="N27" s="26"/>
+      <c r="O27" s="3"/>
       <c r="P27" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q27" s="4"/>
+        <v>23</v>
+      </c>
+      <c r="Q27" s="3"/>
       <c r="R27" s="2">
         <v>1</v>
       </c>
-      <c r="S27" s="4"/>
-      <c r="T27" s="20"/>
-      <c r="U27" s="21"/>
+      <c r="S27" s="3"/>
+      <c r="T27" s="18"/>
+      <c r="U27" s="19"/>
       <c r="V27" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="W27" s="4"/>
+        <v>12</v>
+      </c>
+      <c r="W27" s="3"/>
     </row>
     <row r="28" spans="8:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H28" s="10"/>
-      <c r="I28" s="17"/>
-      <c r="J28" s="18"/>
-      <c r="K28" s="19"/>
-      <c r="L28" s="5"/>
-      <c r="M28" s="6"/>
-      <c r="N28" s="6"/>
-      <c r="O28" s="7"/>
-      <c r="P28" s="5"/>
-      <c r="Q28" s="7"/>
-      <c r="R28" s="5"/>
-      <c r="S28" s="7"/>
-      <c r="T28" s="5"/>
-      <c r="U28" s="7"/>
-      <c r="V28" s="5"/>
-      <c r="W28" s="7"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="16"/>
+      <c r="K28" s="17"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="27"/>
+      <c r="N28" s="27"/>
+      <c r="O28" s="5"/>
+      <c r="P28" s="4"/>
+      <c r="Q28" s="5"/>
+      <c r="R28" s="4"/>
+      <c r="S28" s="5"/>
+      <c r="T28" s="4"/>
+      <c r="U28" s="5"/>
+      <c r="V28" s="4"/>
+      <c r="W28" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="49">
+    <mergeCell ref="H11:H20"/>
+    <mergeCell ref="I11:K20"/>
+    <mergeCell ref="L11:O12"/>
+    <mergeCell ref="P11:Q12"/>
+    <mergeCell ref="R11:S12"/>
+    <mergeCell ref="H9:W9"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="L10:O10"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="R10:S10"/>
+    <mergeCell ref="T10:U10"/>
+    <mergeCell ref="V10:W10"/>
+    <mergeCell ref="L19:O20"/>
+    <mergeCell ref="L27:O28"/>
+    <mergeCell ref="P27:Q28"/>
+    <mergeCell ref="R27:S28"/>
+    <mergeCell ref="V27:W28"/>
+    <mergeCell ref="R25:S26"/>
+    <mergeCell ref="R19:S20"/>
+    <mergeCell ref="T11:U20"/>
+    <mergeCell ref="V11:W12"/>
+    <mergeCell ref="L13:O14"/>
+    <mergeCell ref="P13:Q14"/>
+    <mergeCell ref="R13:S14"/>
+    <mergeCell ref="V13:W14"/>
+    <mergeCell ref="L15:O16"/>
+    <mergeCell ref="P15:Q16"/>
+    <mergeCell ref="R15:S16"/>
+    <mergeCell ref="V15:W16"/>
+    <mergeCell ref="L17:O18"/>
+    <mergeCell ref="P17:Q18"/>
+    <mergeCell ref="R17:S18"/>
+    <mergeCell ref="V17:W18"/>
+    <mergeCell ref="V25:W26"/>
+    <mergeCell ref="P19:Q20"/>
     <mergeCell ref="V19:W20"/>
     <mergeCell ref="H21:H28"/>
     <mergeCell ref="I21:K28"/>
@@ -1274,41 +1309,6 @@
     <mergeCell ref="V23:W24"/>
     <mergeCell ref="L25:O26"/>
     <mergeCell ref="P25:Q26"/>
-    <mergeCell ref="R25:S26"/>
-    <mergeCell ref="V25:W26"/>
-    <mergeCell ref="T11:U20"/>
-    <mergeCell ref="V11:W12"/>
-    <mergeCell ref="L13:O14"/>
-    <mergeCell ref="P13:Q14"/>
-    <mergeCell ref="R13:S14"/>
-    <mergeCell ref="V13:W14"/>
-    <mergeCell ref="L15:O16"/>
-    <mergeCell ref="P15:Q16"/>
-    <mergeCell ref="R15:S16"/>
-    <mergeCell ref="V15:W16"/>
-    <mergeCell ref="L17:O18"/>
-    <mergeCell ref="P17:Q18"/>
-    <mergeCell ref="R17:S18"/>
-    <mergeCell ref="V17:W18"/>
-    <mergeCell ref="L19:O20"/>
-    <mergeCell ref="P19:Q20"/>
-    <mergeCell ref="H11:H20"/>
-    <mergeCell ref="I11:K20"/>
-    <mergeCell ref="L11:O12"/>
-    <mergeCell ref="P11:Q12"/>
-    <mergeCell ref="R11:S12"/>
-    <mergeCell ref="R19:S20"/>
-    <mergeCell ref="H9:W9"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="L10:O10"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="R10:S10"/>
-    <mergeCell ref="T10:U10"/>
-    <mergeCell ref="V10:W10"/>
-    <mergeCell ref="L27:O28"/>
-    <mergeCell ref="P27:Q28"/>
-    <mergeCell ref="R27:S28"/>
-    <mergeCell ref="V27:W28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1322,7 +1322,7 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
